--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B435"/>
+  <dimension ref="A1:B436"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4785,6 +4785,16 @@
         <v>-938.998</v>
       </c>
     </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>2025-10-16</t>
+        </is>
+      </c>
+      <c r="B436" t="n">
+        <v>-4701.528</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B436"/>
+  <dimension ref="A1:B437"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4795,6 +4795,16 @@
         <v>-4701.528</v>
       </c>
     </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>2025-10-17</t>
+        </is>
+      </c>
+      <c r="B437" t="n">
+        <v>-3438.196</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B437"/>
+  <dimension ref="A1:B438"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4805,6 +4805,16 @@
         <v>-3438.196</v>
       </c>
     </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B438" t="n">
+        <v>-432.031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B438"/>
+  <dimension ref="A1:B439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4815,6 +4815,16 @@
         <v>-432.031</v>
       </c>
     </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B439" t="n">
+        <v>4262.175</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B439"/>
+  <dimension ref="A1:B440"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4825,6 +4825,16 @@
         <v>4262.175</v>
       </c>
     </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B440" t="n">
+        <v>-941.787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B440"/>
+  <dimension ref="A1:B441"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4835,6 +4835,16 @@
         <v>-941.787</v>
       </c>
     </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B441" t="n">
+        <v>153.551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B441"/>
+  <dimension ref="A1:B442"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4845,6 +4845,16 @@
         <v>153.551</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B442" t="n">
+        <v>816.033</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B442"/>
+  <dimension ref="A1:B443"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4855,6 +4855,16 @@
         <v>816.033</v>
       </c>
     </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>2025-10-27</t>
+        </is>
+      </c>
+      <c r="B443" t="n">
+        <v>1242.026</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B443"/>
+  <dimension ref="A1:B444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4865,6 +4865,16 @@
         <v>1242.026</v>
       </c>
     </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>2025-10-28</t>
+        </is>
+      </c>
+      <c r="B444" t="n">
+        <v>1791.457</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B444"/>
+  <dimension ref="A1:B445"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4875,6 +4875,16 @@
         <v>1791.457</v>
       </c>
     </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>2025-10-29</t>
+        </is>
+      </c>
+      <c r="B445" t="n">
+        <v>-4240.228</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B445"/>
+  <dimension ref="A1:B446"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4885,6 +4885,16 @@
         <v>-4240.228</v>
       </c>
     </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>2025-10-30</t>
+        </is>
+      </c>
+      <c r="B446" t="n">
+        <v>-4442.707</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B446"/>
+  <dimension ref="A1:B447"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4895,6 +4895,16 @@
         <v>-4442.707</v>
       </c>
     </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>2025-10-31</t>
+        </is>
+      </c>
+      <c r="B447" t="n">
+        <v>-1748.905</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B447"/>
+  <dimension ref="A1:B448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,6 +4905,16 @@
         <v>-1748.905</v>
       </c>
     </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>2025-11-03</t>
+        </is>
+      </c>
+      <c r="B448" t="n">
+        <v>-1751.243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B448"/>
+  <dimension ref="A1:B449"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4915,6 +4915,16 @@
         <v>-1751.243</v>
       </c>
     </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>2025-11-04</t>
+        </is>
+      </c>
+      <c r="B449" t="n">
+        <v>-5588.569</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B449"/>
+  <dimension ref="A1:B458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4925,6 +4925,96 @@
         <v>-5588.569</v>
       </c>
     </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>2025-11-05</t>
+        </is>
+      </c>
+      <c r="B450" t="n">
+        <v>-1526.234</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>2025-11-06</t>
+        </is>
+      </c>
+      <c r="B451" t="n">
+        <v>2369.58</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>2025-11-07</t>
+        </is>
+      </c>
+      <c r="B452" t="n">
+        <v>-5398.9</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>2025-11-10</t>
+        </is>
+      </c>
+      <c r="B453" t="n">
+        <v>11.312</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>2025-11-11</t>
+        </is>
+      </c>
+      <c r="B454" t="n">
+        <v>4854.604</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>2025-11-12</t>
+        </is>
+      </c>
+      <c r="B455" t="n">
+        <v>-2734.994</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>2025-11-13</t>
+        </is>
+      </c>
+      <c r="B456" t="n">
+        <v>-5483.064</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>2025-11-14</t>
+        </is>
+      </c>
+      <c r="B457" t="n">
+        <v>-5251.71</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>2025-11-17</t>
+        </is>
+      </c>
+      <c r="B458" t="n">
+        <v>-2770.057</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B458"/>
+  <dimension ref="A1:B465"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5015,6 +5015,76 @@
         <v>-2770.057</v>
       </c>
     </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>2025-11-18</t>
+        </is>
+      </c>
+      <c r="B459" t="n">
+        <v>-5519.384</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>2025-11-19</t>
+        </is>
+      </c>
+      <c r="B460" t="n">
+        <v>236.53</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>2025-11-20</t>
+        </is>
+      </c>
+      <c r="B461" t="n">
+        <v>-10343.88</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>2025-11-21</t>
+        </is>
+      </c>
+      <c r="B462" t="n">
+        <v>1806.987</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>2025-11-24</t>
+        </is>
+      </c>
+      <c r="B463" t="n">
+        <v>-1709.709</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>2025-11-25</t>
+        </is>
+      </c>
+      <c r="B464" t="n">
+        <v>1471.958</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>2025-11-26</t>
+        </is>
+      </c>
+      <c r="B465" t="n">
+        <v>233.28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B465"/>
+  <dimension ref="A1:B466"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5085,6 +5085,16 @@
         <v>233.28</v>
       </c>
     </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>2025-11-28</t>
+        </is>
+      </c>
+      <c r="B466" t="n">
+        <v>686.888</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B466"/>
+  <dimension ref="A1:B467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5095,6 +5095,16 @@
         <v>686.888</v>
       </c>
     </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>2025-12-01</t>
+        </is>
+      </c>
+      <c r="B467" t="n">
+        <v>98.261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B467"/>
+  <dimension ref="A1:B468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5105,6 +5105,16 @@
         <v>98.261</v>
       </c>
     </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>2025-12-02</t>
+        </is>
+      </c>
+      <c r="B468" t="n">
+        <v>639.149</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B468"/>
+  <dimension ref="A1:B469"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,6 +5115,16 @@
         <v>639.149</v>
       </c>
     </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>2025-12-03</t>
+        </is>
+      </c>
+      <c r="B469" t="n">
+        <v>-154.899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B469"/>
+  <dimension ref="A1:B470"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5125,6 +5125,16 @@
         <v>-154.899</v>
       </c>
     </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>2025-12-04</t>
+        </is>
+      </c>
+      <c r="B470" t="n">
+        <v>-2110.501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B470"/>
+  <dimension ref="A1:B471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5135,6 +5135,16 @@
         <v>-2110.501</v>
       </c>
     </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>2025-12-05</t>
+        </is>
+      </c>
+      <c r="B471" t="n">
+        <v>613.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B471"/>
+  <dimension ref="A1:B472"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5145,6 +5145,16 @@
         <v>613.8</v>
       </c>
     </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>2025-12-08</t>
+        </is>
+      </c>
+      <c r="B472" t="n">
+        <v>-666.129</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B472"/>
+  <dimension ref="A1:B473"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5155,6 +5155,16 @@
         <v>-666.129</v>
       </c>
     </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>2025-12-09</t>
+        </is>
+      </c>
+      <c r="B473" t="n">
+        <v>1272.508</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B473"/>
+  <dimension ref="A1:B475"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5165,6 +5165,26 @@
         <v>1272.508</v>
       </c>
     </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>2025-12-10</t>
+        </is>
+      </c>
+      <c r="B474" t="n">
+        <v>2426.633</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>2025-12-11</t>
+        </is>
+      </c>
+      <c r="B475" t="n">
+        <v>-717.9589999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B475"/>
+  <dimension ref="A1:B476"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5185,6 +5185,16 @@
         <v>-717.9589999999999</v>
       </c>
     </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>2025-12-12</t>
+        </is>
+      </c>
+      <c r="B476" t="n">
+        <v>543.553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B476"/>
+  <dimension ref="A1:B477"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5195,6 +5195,16 @@
         <v>543.553</v>
       </c>
     </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>2025-12-15</t>
+        </is>
+      </c>
+      <c r="B477" t="n">
+        <v>-4141.162</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B477"/>
+  <dimension ref="A1:B478"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5205,6 +5205,16 @@
         <v>-4141.162</v>
       </c>
     </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>2025-12-16</t>
+        </is>
+      </c>
+      <c r="B478" t="n">
+        <v>-3074.559</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B478"/>
+  <dimension ref="A1:B479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5215,6 +5215,16 @@
         <v>-3074.559</v>
       </c>
     </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="B479" t="n">
+        <v>5313.762</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B479"/>
+  <dimension ref="A1:B480"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5225,6 +5225,16 @@
         <v>5313.762</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>2025-12-18</t>
+        </is>
+      </c>
+      <c r="B480" t="n">
+        <v>-1888.003</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B480"/>
+  <dimension ref="A1:B481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5235,6 +5235,16 @@
         <v>-1888.003</v>
       </c>
     </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="B481" t="n">
+        <v>-1795.434</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B481"/>
+  <dimension ref="A1:B482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5245,6 +5245,16 @@
         <v>-1795.434</v>
       </c>
     </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>2025-12-22</t>
+        </is>
+      </c>
+      <c r="B482" t="n">
+        <v>-1320.155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B482"/>
+  <dimension ref="A1:B484"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5255,6 +5255,26 @@
         <v>-1320.155</v>
       </c>
     </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>2025-12-23</t>
+        </is>
+      </c>
+      <c r="B483" t="n">
+        <v>-2158.735</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>2025-12-24</t>
+        </is>
+      </c>
+      <c r="B484" t="n">
+        <v>-1934.365</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B484"/>
+  <dimension ref="A1:B485"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5275,6 +5275,16 @@
         <v>-1934.365</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>2025-12-26</t>
+        </is>
+      </c>
+      <c r="B485" t="n">
+        <v>-953.801</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data_cripto/btc_etf_flow.xlsx
+++ b/data_cripto/btc_etf_flow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B485"/>
+  <dimension ref="A1:B486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5285,6 +5285,16 @@
         <v>-953.801</v>
       </c>
     </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>2025-12-29</t>
+        </is>
+      </c>
+      <c r="B486" t="n">
+        <v>-221.499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
